--- a/Project/testdata/ExcelRahul.xlsx
+++ b/Project/testdata/ExcelRahul.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,9 +412,14 @@
         <v>620001</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Kurtas</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A3"/>
   </ignoredErrors>
 </worksheet>
 </file>